--- a/biology/Médecine/Heimia/Heimia.xlsx
+++ b/biology/Médecine/Heimia/Heimia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heimia est un genre de deux ou trois espèces d'arbustes de la famille des Lythraceae, originaires d'Amérique.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il pousse du sud des États-Unis à l'Argentine.
 </t>
@@ -542,7 +556,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Heimia myrtifolia
 Heimia salicifolia</t>
@@ -575,11 +591,14 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Usage traditionnel
-Heimia salicifolia (Kunth) Link est une de ces espèces. Elle est aussi connue sous le nom de Sinicuichi et fait l'objet d'un usage rituel ; elle est réputée pour être un enthéogène et un hallucinogène auditif.
-Les feuilles incomplètement séchées sont écrasées dans l'eau et le jus obtenu fermente au soleil. La boisson qui en résulte provoque des étourdissements, une euphorie somnolente, une altération de la perception du temps et de l'espace, des hallucinations auditives. Cette boisson est utilisée dans les rituels pour revivre des événements antérieurs[1].
-Pharmacologie
-Cinq alcaloïdes de la famille des quinolizidines ont été isolés, dont la cryogénine.
+          <t>Usage traditionnel</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heimia salicifolia (Kunth) Link est une de ces espèces. Elle est aussi connue sous le nom de Sinicuichi et fait l'objet d'un usage rituel ; elle est réputée pour être un enthéogène et un hallucinogène auditif.
+Les feuilles incomplètement séchées sont écrasées dans l'eau et le jus obtenu fermente au soleil. La boisson qui en résulte provoque des étourdissements, une euphorie somnolente, une altération de la perception du temps et de l'espace, des hallucinations auditives. Cette boisson est utilisée dans les rituels pour revivre des événements antérieurs.
 </t>
         </is>
       </c>
@@ -605,10 +624,53 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Usage traditionnel</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Pharmacologie</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cinq alcaloïdes de la famille des quinolizidines ont été isolés, dont la cryogénine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Heimia</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heimia</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Note</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Richard Evans Schultes (trad. de l'anglais), Un panorama des hallucinogènes du nouveau monde, Paris, Édition L'esprit frappeur, 2000, 116 p. (ISBN 978-2-84405-098-4)
